--- a/Input/Training/Training_118.xlsx
+++ b/Input/Training/Training_118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\pikr001\fresh\FESTIV_MODEL\Input\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A14BC-0D1F-4A1F-ACBC-5F70785DD54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB30307-A744-4E61-8B33-EAB9B0A051D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="1830" windowWidth="27225" windowHeight="13065" tabRatio="614" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="1740" windowWidth="27225" windowHeight="13065" tabRatio="614" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="24" r:id="rId1"/>
@@ -4058,7 +4058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4954,7 +4954,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E187"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5014,7 +5014,7 @@
         <v>9.9900000000000003E-2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="F2">
         <v>175</v>
@@ -5045,7 +5045,7 @@
         <v>4.24E-2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.29E-2</v>
       </c>
       <c r="F3">
         <v>175</v>
@@ -5076,7 +5076,7 @@
         <v>7.9799999999999992E-3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.7600000000000001E-3</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -5107,7 +5107,7 @@
         <v>0.108</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F5">
         <v>175</v>
@@ -5138,7 +5138,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="F6">
         <v>175</v>
@@ -5169,7 +5169,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4.5900000000000003E-3</v>
       </c>
       <c r="F7">
         <v>175</v>
@@ -5200,7 +5200,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.4399999999999999E-3</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -5262,7 +5262,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -5293,7 +5293,7 @@
         <v>6.88E-2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="F11">
         <v>175</v>
@@ -5324,7 +5324,7 @@
         <v>6.8199999999999997E-2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="F12">
         <v>175</v>
@@ -5355,7 +5355,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="F13">
         <v>175</v>
@@ -5386,7 +5386,7 @@
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="F14">
         <v>175</v>
@@ -5417,7 +5417,7 @@
         <v>0.16</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="F15">
         <v>175</v>
@@ -5448,7 +5448,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>8.6199999999999992E-3</v>
       </c>
       <c r="F16">
         <v>175</v>
@@ -5479,7 +5479,7 @@
         <v>7.3099999999999998E-2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.2249999999999999E-2</v>
       </c>
       <c r="F17">
         <v>175</v>
@@ -5510,7 +5510,7 @@
         <v>7.0699999999999999E-2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="F18">
         <v>175</v>
@@ -5541,7 +5541,7 @@
         <v>0.24440000000000001</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="F19">
         <v>175</v>
@@ -5572,7 +5572,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="F20">
         <v>175</v>
@@ -5603,7 +5603,7 @@
         <v>8.3400000000000002E-2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.12E-2</v>
       </c>
       <c r="F21">
         <v>175</v>
@@ -5634,7 +5634,7 @@
         <v>4.3700000000000003E-2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1.32E-2</v>
       </c>
       <c r="F22">
         <v>500</v>
@@ -5665,7 +5665,7 @@
         <v>0.18010000000000001</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="F23">
         <v>175</v>
@@ -5696,7 +5696,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1.23E-2</v>
       </c>
       <c r="F24">
         <v>175</v>
@@ -5727,7 +5727,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.119E-2</v>
       </c>
       <c r="F25">
         <v>175</v>
@@ -5758,7 +5758,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2.52E-2</v>
       </c>
       <c r="F26">
         <v>175</v>
@@ -5789,7 +5789,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F27">
         <v>175</v>
@@ -5820,7 +5820,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1.83E-2</v>
       </c>
       <c r="F28">
         <v>175</v>
@@ -5851,7 +5851,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="F29">
         <v>175</v>
@@ -5882,7 +5882,7 @@
         <v>0.159</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="F30">
         <v>175</v>
@@ -5913,7 +5913,7 @@
         <v>4.9200000000000001E-2</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1.35E-2</v>
       </c>
       <c r="F31">
         <v>175</v>
@@ -5944,7 +5944,7 @@
         <v>0.08</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="F32">
         <v>500</v>
@@ -6006,7 +6006,7 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="F34">
         <v>500</v>
@@ -6037,7 +6037,7 @@
         <v>8.5500000000000007E-2</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1.9130000000000001E-2</v>
       </c>
       <c r="F35">
         <v>175</v>
@@ -6068,7 +6068,7 @@
         <v>9.4299999999999995E-2</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="F36">
         <v>175</v>
@@ -6130,7 +6130,7 @@
         <v>5.04E-2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>4.3099999999999996E-3</v>
       </c>
       <c r="F38">
         <v>175</v>
@@ -6161,7 +6161,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>7.9900000000000006E-3</v>
       </c>
       <c r="F39">
         <v>500</v>
@@ -6192,7 +6192,7 @@
         <v>0.15629999999999999</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="F40">
         <v>175</v>
@@ -6223,7 +6223,7 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F41">
         <v>175</v>
@@ -6254,7 +6254,7 @@
         <v>0.1153</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F42">
         <v>140</v>
@@ -6285,7 +6285,7 @@
         <v>9.8500000000000004E-2</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2.98E-2</v>
       </c>
       <c r="F43">
         <v>175</v>
@@ -6316,7 +6316,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2.29E-2</v>
       </c>
       <c r="F44">
         <v>175</v>
@@ -6347,7 +6347,7 @@
         <v>0.1244</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F45">
         <v>175</v>
@@ -6378,7 +6378,7 @@
         <v>0.247</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="F46">
         <v>175</v>
@@ -6409,7 +6409,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="F47">
         <v>175</v>
@@ -6440,7 +6440,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F48">
         <v>175</v>
@@ -6471,7 +6471,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="F49">
         <v>175</v>
@@ -6502,7 +6502,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>8.7100000000000007E-3</v>
       </c>
       <c r="F50">
         <v>175</v>
@@ -6533,7 +6533,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>2.5600000000000002E-3</v>
       </c>
       <c r="F51">
         <v>500</v>
@@ -6595,7 +6595,7 @@
         <v>0.106</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="F53">
         <v>175</v>
@@ -6626,7 +6626,7 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="F54">
         <v>175</v>
@@ -6657,7 +6657,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>4.64E-3</v>
       </c>
       <c r="F55">
         <v>175</v>
@@ -6688,7 +6688,7 @@
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1.84E-2</v>
       </c>
       <c r="F56">
         <v>175</v>
@@ -6719,7 +6719,7 @@
         <v>4.87E-2</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="F57">
         <v>175</v>
@@ -6750,7 +6750,7 @@
         <v>0.183</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="F58">
         <v>175</v>
@@ -6781,7 +6781,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F59">
         <v>175</v>
@@ -6812,7 +6812,7 @@
         <v>0.24540000000000001</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>6.08E-2</v>
       </c>
       <c r="F60">
         <v>175</v>
@@ -6843,7 +6843,7 @@
         <v>0.1681</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="F61">
         <v>175</v>
@@ -6874,7 +6874,7 @@
         <v>9.01E-2</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2.24E-2</v>
       </c>
       <c r="F62">
         <v>175</v>
@@ -6905,7 +6905,7 @@
         <v>0.1356</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F63">
         <v>175</v>
@@ -6936,7 +6936,7 @@
         <v>0.127</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F64">
         <v>175</v>
@@ -6967,7 +6967,7 @@
         <v>0.189</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="F65">
         <v>175</v>
@@ -6998,7 +6998,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="F66">
         <v>175</v>
@@ -7029,7 +7029,7 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="F67">
         <v>175</v>
@@ -7060,7 +7060,7 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="F68">
         <v>175</v>
@@ -7091,7 +7091,7 @@
         <v>0.186</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="F69">
         <v>175</v>
@@ -7122,7 +7122,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="F70">
         <v>175</v>
@@ -7153,7 +7153,7 @@
         <v>7.5200000000000003E-2</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="F71">
         <v>175</v>
@@ -7184,7 +7184,7 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="F72">
         <v>175</v>
@@ -7215,7 +7215,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="F73">
         <v>175</v>
@@ -7246,7 +7246,7 @@
         <v>0.16350000000000001</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F74">
         <v>175</v>
@@ -7277,7 +7277,7 @@
         <v>0.122</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>2.63E-2</v>
       </c>
       <c r="F75">
         <v>175</v>
@@ -7308,7 +7308,7 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F76">
         <v>175</v>
@@ -7339,7 +7339,7 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>8.6900000000000005E-2</v>
       </c>
       <c r="F77">
         <v>175</v>
@@ -7370,7 +7370,7 @@
         <v>7.0699999999999999E-2</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="F78">
         <v>175</v>
@@ -7401,7 +7401,7 @@
         <v>9.5499999999999995E-3</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="F79">
         <v>175</v>
@@ -7432,7 +7432,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>4.8799999999999998E-3</v>
       </c>
       <c r="F80">
         <v>175</v>
@@ -7463,7 +7463,7 @@
         <v>9.6600000000000005E-2</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="F81">
         <v>175</v>
@@ -7494,7 +7494,7 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="F82">
         <v>175</v>
@@ -7525,7 +7525,7 @@
         <v>9.6600000000000005E-2</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="F83">
         <v>175</v>
@@ -7556,7 +7556,7 @@
         <v>7.1900000000000006E-2</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="F84">
         <v>175</v>
@@ -7587,7 +7587,7 @@
         <v>0.2293</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="F85">
         <v>175</v>
@@ -7618,7 +7618,7 @@
         <v>0.251</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F86">
         <v>175</v>
@@ -7649,7 +7649,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="F87">
         <v>175</v>
@@ -7680,7 +7680,7 @@
         <v>0.21579999999999999</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>4.7390000000000002E-2</v>
       </c>
       <c r="F88">
         <v>175</v>
@@ -7711,7 +7711,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F89">
         <v>175</v>
@@ -7742,7 +7742,7 @@
         <v>0.15</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="F90">
         <v>175</v>
@@ -7773,7 +7773,7 @@
         <v>1.35E-2</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>2.64E-3</v>
       </c>
       <c r="F91">
         <v>500</v>
@@ -7804,7 +7804,7 @@
         <v>5.6099999999999997E-2</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1.23E-2</v>
       </c>
       <c r="F92">
         <v>175</v>
@@ -7835,7 +7835,7 @@
         <v>3.7600000000000001E-2</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>8.2400000000000008E-3</v>
       </c>
       <c r="F93">
         <v>175</v>
@@ -7897,7 +7897,7 @@
         <v>0.02</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1.72E-3</v>
       </c>
       <c r="F95">
         <v>500</v>
@@ -7959,7 +7959,7 @@
         <v>9.8599999999999993E-2</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>9.0100000000000006E-3</v>
       </c>
       <c r="F97">
         <v>500</v>
@@ -7990,7 +7990,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2.6900000000000001E-3</v>
       </c>
       <c r="F98">
         <v>500</v>
@@ -8021,7 +8021,7 @@
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F99">
         <v>500</v>
@@ -8052,7 +8052,7 @@
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F100">
         <v>500</v>
@@ -8083,7 +8083,7 @@
         <v>0.218</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F101">
         <v>175</v>
@@ -8114,7 +8114,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>2.58E-2</v>
       </c>
       <c r="F102">
         <v>175</v>
@@ -8176,7 +8176,7 @@
         <v>0.10150000000000001</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>2.24E-2</v>
       </c>
       <c r="F104">
         <v>175</v>
@@ -8207,7 +8207,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="F105">
         <v>500</v>
@@ -8238,7 +8238,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="F106">
         <v>175</v>
@@ -8269,7 +8269,7 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="F107">
         <v>175</v>
@@ -8331,7 +8331,7 @@
         <v>0.127</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F109">
         <v>500</v>
@@ -8362,7 +8362,7 @@
         <v>0.41149999999999998</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="F110">
         <v>175</v>
@@ -8393,7 +8393,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>8.8199999999999997E-3</v>
       </c>
       <c r="F111">
         <v>175</v>
@@ -8424,7 +8424,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="F112">
         <v>175</v>
@@ -8455,7 +8455,7 @@
         <v>0.18</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="F113">
         <v>175</v>
@@ -8486,7 +8486,7 @@
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>8.6599999999999993E-3</v>
       </c>
       <c r="F114">
         <v>175</v>
@@ -8517,7 +8517,7 @@
         <v>0.1323</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="F115">
         <v>175</v>
@@ -8548,7 +8548,7 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="F116">
         <v>175</v>
@@ -8579,7 +8579,7 @@
         <v>0.122</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F117">
         <v>500</v>
@@ -8610,7 +8610,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1.23E-2</v>
       </c>
       <c r="F118">
         <v>175</v>
@@ -8641,7 +8641,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="F119">
         <v>175</v>
@@ -8672,7 +8672,7 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>3.09E-2</v>
       </c>
       <c r="F120">
         <v>175</v>
@@ -8703,7 +8703,7 @@
         <v>0.19989999999999999</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="F121">
         <v>175</v>
@@ -8734,7 +8734,7 @@
         <v>1.24E-2</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>3.7599999999999999E-3</v>
       </c>
       <c r="F122">
         <v>175</v>
@@ -8765,7 +8765,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>5.4599999999999996E-3</v>
       </c>
       <c r="F123">
         <v>175</v>
@@ -8796,7 +8796,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F124">
         <v>500</v>
@@ -8827,7 +8827,7 @@
         <v>0.105</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F125">
         <v>500</v>
@@ -8858,7 +8858,7 @@
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="F126">
         <v>175</v>
@@ -8889,7 +8889,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1.75E-3</v>
       </c>
       <c r="F127">
         <v>500</v>
@@ -8952,7 +8952,7 @@
         <v>8.5300000000000001E-2</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>2.98E-2</v>
       </c>
       <c r="F129">
         <v>200</v>
@@ -8983,7 +8983,7 @@
         <v>3.6650000000000002E-2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1.12E-2</v>
       </c>
       <c r="F130">
         <v>200</v>
@@ -9014,7 +9014,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F131">
         <v>175</v>
@@ -9045,7 +9045,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F132">
         <v>175</v>
@@ -9076,7 +9076,7 @@
         <v>6.4100000000000004E-2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="F133">
         <v>175</v>
@@ -9107,7 +9107,7 @@
         <v>0.123</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F134">
         <v>500</v>
@@ -9138,7 +9138,7 @@
         <v>0.2074</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>2.828E-2</v>
       </c>
       <c r="F135">
         <v>500</v>
@@ -9169,7 +9169,7 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F136">
         <v>175</v>
@@ -9200,7 +9200,7 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="F137">
         <v>175</v>
@@ -9231,7 +9231,7 @@
         <v>7.1199999999999999E-2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="F138">
         <v>500</v>
@@ -9262,7 +9262,7 @@
         <v>0.188</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>5.1799999999999999E-2</v>
       </c>
       <c r="F139">
         <v>500</v>
@@ -9293,7 +9293,7 @@
         <v>9.9699999999999997E-2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="F140">
         <v>500</v>
@@ -9324,7 +9324,7 @@
         <v>8.3599999999999994E-2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="F141">
         <v>175</v>
@@ -9355,7 +9355,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="F142">
         <v>500</v>
@@ -9386,7 +9386,7 @@
         <v>0.15809999999999999</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="F143">
         <v>500</v>
@@ -9417,7 +9417,7 @@
         <v>0.12720000000000001</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="F144">
         <v>175</v>
@@ -9448,7 +9448,7 @@
         <v>8.48E-2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>2.58E-2</v>
       </c>
       <c r="F145">
         <v>175</v>
@@ -9479,7 +9479,7 @@
         <v>0.158</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="F146">
         <v>175</v>
@@ -9510,7 +9510,7 @@
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>2.23E-2</v>
       </c>
       <c r="F147">
         <v>175</v>
@@ -9541,7 +9541,7 @@
         <v>4.3400000000000001E-2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1.32E-2</v>
       </c>
       <c r="F148">
         <v>175</v>
@@ -9572,7 +9572,7 @@
         <v>0.182</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>3.56E-2</v>
       </c>
       <c r="F149">
         <v>175</v>
@@ -9603,7 +9603,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="F150">
         <v>175</v>
@@ -9634,7 +9634,7 @@
         <v>8.6900000000000005E-2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>2.69E-2</v>
       </c>
       <c r="F151">
         <v>175</v>
@@ -9665,7 +9665,7 @@
         <v>9.3399999999999997E-2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1.83E-2</v>
       </c>
       <c r="F152">
         <v>175</v>
@@ -9696,7 +9696,7 @@
         <v>0.108</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="F153">
         <v>175</v>
@@ -9727,7 +9727,7 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="F154">
         <v>200</v>
@@ -9758,7 +9758,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>6.4799999999999996E-2</v>
       </c>
       <c r="F155">
         <v>175</v>
@@ -9789,7 +9789,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1.78E-2</v>
       </c>
       <c r="F156">
         <v>175</v>
@@ -9820,7 +9820,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="F157">
         <v>175</v>
@@ -9851,7 +9851,7 @@
         <v>8.8499999999999995E-2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="F158">
         <v>175</v>
@@ -9882,7 +9882,7 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="F159">
         <v>175</v>
@@ -9913,7 +9913,7 @@
         <v>8.1299999999999997E-2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F160">
         <v>175</v>
@@ -9944,7 +9944,7 @@
         <v>0.12620000000000001</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>2.7699999999999999E-2</v>
       </c>
       <c r="F161">
         <v>175</v>
@@ -9975,7 +9975,7 @@
         <v>5.5899999999999998E-2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1.23E-2</v>
       </c>
       <c r="F162">
         <v>175</v>
@@ -10006,7 +10006,7 @@
         <v>0.112</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>2.46E-2</v>
       </c>
       <c r="F163">
         <v>175</v>
@@ -10037,7 +10037,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F164">
         <v>500</v>
@@ -10068,7 +10068,7 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="F165">
         <v>175</v>
@@ -10099,7 +10099,7 @@
         <v>0.15840000000000001</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="F166">
         <v>175</v>
@@ -10130,7 +10130,7 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="F167">
         <v>175</v>
@@ -10161,7 +10161,7 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="F168">
         <v>175</v>
@@ -10192,7 +10192,7 @@
         <v>3.78E-2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>9.9399999999999992E-3</v>
       </c>
       <c r="F169">
         <v>175</v>
@@ -10223,7 +10223,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F170">
         <v>175</v>
@@ -10254,7 +10254,7 @@
         <v>0.183</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F171">
         <v>175</v>
@@ -10285,7 +10285,7 @@
         <v>7.0300000000000001E-2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="F172">
         <v>175</v>
@@ -10316,7 +10316,7 @@
         <v>0.183</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F173">
         <v>175</v>
@@ -10347,7 +10347,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="F174">
         <v>175</v>
@@ -10378,7 +10378,7 @@
         <v>0.18129999999999999</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>3.9059999999999997E-2</v>
       </c>
       <c r="F175">
         <v>175</v>
@@ -10409,7 +10409,7 @@
         <v>7.6200000000000004E-2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="F176">
         <v>175</v>
@@ -10440,7 +10440,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F177">
         <v>175</v>
@@ -10471,7 +10471,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>2.47E-2</v>
       </c>
       <c r="F178">
         <v>175</v>
@@ -10502,7 +10502,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>9.1299999999999992E-3</v>
       </c>
       <c r="F179">
         <v>175</v>
@@ -10533,7 +10533,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="F180">
         <v>500</v>
@@ -10564,7 +10564,7 @@
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1.35E-2</v>
       </c>
       <c r="F181">
         <v>175</v>
@@ -10595,7 +10595,7 @@
         <v>7.4099999999999999E-2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="F182">
         <v>175</v>
@@ -10626,7 +10626,7 @@
         <v>1.04E-2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F183">
         <v>175</v>
@@ -10657,7 +10657,7 @@
         <v>4.0499999999999998E-3</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="F184">
         <v>500</v>
@@ -10688,7 +10688,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="F185">
         <v>175</v>
@@ -10719,7 +10719,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="F186">
         <v>175</v>
@@ -10750,7 +10750,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="F187">
         <v>175</v>
@@ -11628,8 +11628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
@@ -12367,7 +12367,7 @@
         <v>24</v>
       </c>
       <c r="P11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J56" s="6">
         <f>5/60</f>
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J57" s="6">
         <f>5/60</f>
@@ -15452,7 +15452,7 @@
         <v>-350</v>
       </c>
       <c r="I58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J58">
         <v>8.3333333333333329E-2</v>

--- a/Input/Training/Training_118.xlsx
+++ b/Input/Training/Training_118.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\pikr001\fresh\FESTIV_MODEL\Input\Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\pikr001\fresh2\FESTIV_MODEL\Input\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB30307-A744-4E61-8B33-EAB9B0A051D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29064AF-2EE4-439F-BCCF-01A2592A3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="1740" windowWidth="27225" windowHeight="13065" tabRatio="614" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21375" yWindow="1110" windowWidth="16050" windowHeight="13065" tabRatio="614" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSTEM" sheetId="24" r:id="rId1"/>
@@ -11630,7 +11630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J56" s="6">
         <f>5/60</f>
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J57" s="6">
         <f>5/60</f>
@@ -15452,7 +15452,7 @@
         <v>-350</v>
       </c>
       <c r="I58">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J58">
         <v>8.3333333333333329E-2</v>
